--- a/reports/daily_drivers/daily_report_2025-05-16.xlsx
+++ b/reports/daily_drivers/daily_report_2025-05-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Christopher Thomas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ET-01</t>
+          <t>TRK-1011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DFW-101</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>06:29 AM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03:35 PM</t>
+          <t>03:33 PM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -526,37 +526,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarah Johnson</t>
+          <t>Matthew Harris</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ET-02</t>
+          <t>TRK-1013</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DFW-102</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>05:50 AM</t>
+          <t>06:52 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>03:37 PM</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -569,37 +569,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Michael Brown</t>
+          <t>Mark Thompson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ET-03</t>
+          <t>TRK-1015</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DFW-103</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>04:08 PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Robert Davis</t>
+          <t>William Brown</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PT-04</t>
+          <t>TRK-1004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOU-201</t>
+          <t>Richardson Development</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,55 +637,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>06:01 AM</t>
+          <t>06:32 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:54 PM</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Early End</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>36 minutes early</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jennifer Wilson</t>
+          <t>Richard Wilson</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PT-05</t>
+          <t>TRK-1007</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HOU-202</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:15 AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:15 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:14 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03:32 PM</t>
+          <t>03:18 PM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -698,37 +702,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>David Martinez</t>
+          <t>Anthony Martin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F-150</t>
+          <t>TRK-1014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HOU-203</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>07:16 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03:05 PM</t>
+          <t>03:58 PM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -738,91 +742,91 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>45 minutes late</t>
+          <t>16 minutes late</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thomas Anderson</t>
+          <t>James Davis</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RAM-2500</t>
+          <t>TRK-1005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>WT-301</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>06:20 AM</t>
+          <t>07:03 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>02:50 PM</t>
+          <t>03:12 PM</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Early End</t>
+          <t>Not On Job</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>40 minutes early</t>
+          <t>At incorrect location: North Richland Hills</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jessica Taylor</t>
+          <t>Charles Anderson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ET-08</t>
+          <t>TRK-1010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>WT-302</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:05 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>04:15 PM</t>
+          <t>02:48 PM</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -835,17 +839,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Christopher Lee</t>
+          <t>Michael Johnson</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PT-09</t>
+          <t>TRK-1002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WT-303</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -860,12 +864,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>07:25 AM</t>
+          <t>06:18 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>02:50 PM</t>
+          <t>03:07 PM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -875,52 +879,275 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>85 minutes late</t>
+          <t>18 minutes late</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Amanda Clark</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ET-10</t>
+          <t>TRK-1003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DFW-104</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>07:28 AM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>03:45 PM</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>28 minutes late</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>David Miller</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TRK-1006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>West Plano Project</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>03:45 PM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>06:47 AM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>03:42 PM</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Joseph Moore</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TRK-1008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Richardson Development</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>06:30 AM</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>03:30 PM</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>06:55 AM</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>03:25 PM</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>25 minutes late</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Thomas Taylor</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TRK-1009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>North Dallas Site</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>06:43 AM</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>03:52 PM</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Daniel Jackson</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TRK-1012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Richardson Development</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>06:15 AM</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>03:15 PM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>06:16 AM</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>03:12 PM</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TRK-1001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>North Dallas Site</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>06:25 AM</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>03:40 PM</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>03:35 PM</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>On Time</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/daily_drivers/daily_report_2025-05-16.xlsx
+++ b/reports/daily_drivers/daily_report_2025-05-16.xlsx
@@ -483,12 +483,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Christopher Thomas</t>
+          <t>Mark Thompson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRK-1011</t>
+          <t>TRK-1015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,22 +498,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>06:29 AM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03:33 PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -526,37 +526,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Matthew Harris</t>
+          <t>Christopher Thomas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRK-1013</t>
+          <t>TRK-1011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>North Dallas Site</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>06:52 AM</t>
+          <t>06:29 AM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03:37 PM</t>
+          <t>03:33 PM</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -569,37 +569,37 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mark Thompson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRK-1015</t>
+          <t>TRK-1001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Downtown Construction</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>06:25 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>03:35 PM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,107 +612,107 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>William Brown</t>
+          <t>Richard Wilson</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRK-1004</t>
+          <t>TRK-1007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Richardson Development</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:15 AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:15 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>06:32 AM</t>
+          <t>06:14 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>02:54 PM</t>
+          <t>03:18 PM</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Early End</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>36 minutes early</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Richard Wilson</t>
+          <t>William Brown</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRK-1007</t>
+          <t>TRK-1004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Downtown Construction</t>
+          <t>Richardson Development</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>03:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>06:14 AM</t>
+          <t>06:32 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03:18 PM</t>
+          <t>02:54 PM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Early End</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>36 minutes early</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anthony Martin</t>
+          <t>Thomas Taylor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRK-1014</t>
+          <t>TRK-1009</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>West Plano Project</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -727,24 +727,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>07:16 AM</t>
+          <t>06:43 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03:58 PM</t>
+          <t>03:52 PM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>16 minutes late</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -796,149 +792,145 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Charles Anderson</t>
+          <t>Joseph Moore</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRK-1010</t>
+          <t>TRK-1008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>West Plano Project</t>
+          <t>Richardson Development</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>06:05 AM</t>
+          <t>06:55 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>02:48 PM</t>
+          <t>03:25 PM</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>25 minutes late</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>Matthew Harris</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRK-1002</t>
+          <t>TRK-1013</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>West Plano Project</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>06:18 AM</t>
+          <t>06:52 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03:07 PM</t>
+          <t>03:37 PM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>18 minutes late</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>David Miller</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRK-1003</t>
+          <t>TRK-1006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Downtown Construction</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>07:28 AM</t>
+          <t>06:47 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>03:42 PM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>28 minutes late</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>David Miller</t>
+          <t>Michael Johnson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRK-1006</t>
+          <t>TRK-1002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -948,40 +940,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>06:47 AM</t>
+          <t>06:18 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03:42 PM</t>
+          <t>03:07 PM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>18 minutes late</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Joseph Moore</t>
+          <t>Daniel Jackson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRK-1008</t>
+          <t>TRK-1012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -991,49 +987,45 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:15 AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:15 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>06:55 AM</t>
+          <t>06:16 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03:25 PM</t>
+          <t>03:12 PM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>25 minutes late</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thomas Taylor</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRK-1009</t>
+          <t>TRK-1003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>North Dallas Site</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1048,98 +1040,106 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>06:43 AM</t>
+          <t>07:28 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03:52 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>28 minutes late</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daniel Jackson</t>
+          <t>Anthony Martin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRK-1012</t>
+          <t>TRK-1014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Richardson Development</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>03:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>06:16 AM</t>
+          <t>07:16 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03:12 PM</t>
+          <t>03:58 PM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>16 minutes late</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Charles Anderson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRK-1001</t>
+          <t>TRK-1010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>North Dallas Site</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06:25 AM</t>
+          <t>06:05 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03:35 PM</t>
+          <t>02:48 PM</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">

--- a/reports/daily_drivers/daily_report_2025-05-16.xlsx
+++ b/reports/daily_drivers/daily_report_2025-05-16.xlsx
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mark Thompson</t>
+          <t>Charles Anderson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRK-1015</t>
+          <t>TRK-1010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Downtown Construction</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>06:05 AM</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>02:48 PM</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -526,12 +526,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christopher Thomas</t>
+          <t>Mark Thompson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRK-1011</t>
+          <t>TRK-1015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -541,22 +541,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>06:29 AM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03:33 PM</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -569,12 +569,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>James Davis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRK-1001</t>
+          <t>TRK-1005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -584,83 +584,91 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>06:25 AM</t>
+          <t>07:03 AM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03:35 PM</t>
+          <t>03:12 PM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Not On Job</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>At incorrect location: North Richland Hills</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Richard Wilson</t>
+          <t>Anthony Martin</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRK-1007</t>
+          <t>TRK-1014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Downtown Construction</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>03:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>06:14 AM</t>
+          <t>07:16 AM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03:18 PM</t>
+          <t>03:58 PM</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16 minutes late</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>William Brown</t>
+          <t>Daniel Jackson</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TRK-1004</t>
+          <t>TRK-1012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -670,69 +678,65 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:15 AM</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:15 PM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>06:32 AM</t>
+          <t>06:16 AM</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>02:54 PM</t>
+          <t>03:12 PM</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Early End</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>36 minutes early</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thomas Taylor</t>
+          <t>Christopher Thomas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TRK-1009</t>
+          <t>TRK-1011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>North Dallas Site</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>06:43 AM</t>
+          <t>06:29 AM</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03:52 PM</t>
+          <t>03:33 PM</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -745,174 +749,174 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>James Davis</t>
+          <t>William Brown</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRK-1005</t>
+          <t>TRK-1004</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>North Dallas Site</t>
+          <t>Richardson Development</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>07:03 AM</t>
+          <t>06:32 AM</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03:12 PM</t>
+          <t>02:54 PM</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Not On Job</t>
+          <t>Early End</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>At incorrect location: North Richland Hills</t>
+          <t>36 minutes early</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Joseph Moore</t>
+          <t>Richard Wilson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRK-1008</t>
+          <t>TRK-1007</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Richardson Development</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>06:15 AM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>03:15 PM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>06:55 AM</t>
+          <t>06:14 AM</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03:25 PM</t>
+          <t>03:18 PM</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>25 minutes late</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Matthew Harris</t>
+          <t>Joseph Moore</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRK-1013</t>
+          <t>TRK-1008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>North Dallas Site</t>
+          <t>Richardson Development</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>06:52 AM</t>
+          <t>06:55 AM</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03:37 PM</t>
+          <t>03:25 PM</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>25 minutes late</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>David Miller</t>
+          <t>Thomas Taylor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRK-1006</t>
+          <t>TRK-1009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>West Plano Project</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>06:47 AM</t>
+          <t>06:43 AM</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03:42 PM</t>
+          <t>03:52 PM</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -925,84 +929,80 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Michael Johnson</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRK-1002</t>
+          <t>TRK-1001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>West Plano Project</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>06:18 AM</t>
+          <t>06:25 AM</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03:07 PM</t>
+          <t>03:35 PM</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>18 minutes late</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Daniel Jackson</t>
+          <t>David Miller</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRK-1012</t>
+          <t>TRK-1006</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Richardson Development</t>
+          <t>West Plano Project</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06:15 AM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>03:15 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>06:16 AM</t>
+          <t>06:47 AM</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03:12 PM</t>
+          <t>03:42 PM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1015,59 +1015,55 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Robert Williams</t>
+          <t>Matthew Harris</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TRK-1003</t>
+          <t>TRK-1013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downtown Construction</t>
+          <t>North Dallas Site</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:45 AM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>07:28 AM</t>
+          <t>06:52 AM</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03:45 PM</t>
+          <t>03:37 PM</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Late</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>28 minutes late</t>
-        </is>
-      </c>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anthony Martin</t>
+          <t>Michael Johnson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRK-1014</t>
+          <t>TRK-1002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1077,22 +1073,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>07:16 AM</t>
+          <t>06:18 AM</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03:58 PM</t>
+          <t>03:07 PM</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1102,52 +1098,56 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>16 minutes late</t>
+          <t>18 minutes late</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Charles Anderson</t>
+          <t>Robert Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRK-1010</t>
+          <t>TRK-1003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>West Plano Project</t>
+          <t>Downtown Construction</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>06:05 AM</t>
+          <t>07:28 AM</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02:48 PM</t>
+          <t>03:45 PM</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>On Time</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>28 minutes late</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reports/daily_drivers/daily_report_2025-05-16.xlsx
+++ b/reports/daily_drivers/daily_report_2025-05-16.xlsx
@@ -7,7 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="All Drivers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="On Time" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Late" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Early End" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Not On Job" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Source Trace" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +485,21 @@
           <t>status_reason</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>identity_verified</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>identity_source</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +543,19 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>E1010</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,6 +599,19 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>E1015</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -612,6 +659,19 @@
           <t>At incorrect location: North Richland Hills</t>
         </is>
       </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>E1005</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -659,6 +719,19 @@
           <t>16 minutes late</t>
         </is>
       </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>E1014</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -702,6 +775,19 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>E1012</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -745,6 +831,19 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>E1011</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -792,6 +891,19 @@
           <t>36 minutes early</t>
         </is>
       </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>E1004</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -835,6 +947,19 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>E1007</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -882,6 +1007,19 @@
           <t>25 minutes late</t>
         </is>
       </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>E1008</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -925,6 +1063,19 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>E1009</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -968,6 +1119,19 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>E1001</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1011,6 +1175,19 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>E1006</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1054,6 +1231,19 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>E1013</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1101,6 +1291,19 @@
           <t>18 minutes late</t>
         </is>
       </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>E1002</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1146,6 +1349,1413 @@
       <c r="I16" t="inlineStr">
         <is>
           <t>28 minutes late</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>E1003</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>driver_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>asset_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>job_site</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_start</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_end</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>actual_start</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_end</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>status_reason</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>identity_verified</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>identity_source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Charles Anderson</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TRK-1010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>West Plano Project</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>06:05 AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>02:48 PM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>E1010</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mark Thompson</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TRK-1015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Downtown Construction</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>E1015</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Daniel Jackson</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TRK-1012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Richardson Development</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>06:15 AM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>03:15 PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>06:16 AM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>03:12 PM</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>E1012</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Christopher Thomas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TRK-1011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Downtown Construction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>06:29 AM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>03:33 PM</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>E1011</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Richard Wilson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TRK-1007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Downtown Construction</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>06:15 AM</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>03:15 PM</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>06:14 AM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>03:18 PM</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>E1007</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Thomas Taylor</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TRK-1009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>North Dallas Site</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>06:43 AM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>03:52 PM</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>E1009</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>John Smith</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TRK-1001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>North Dallas Site</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>06:25 AM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>03:35 PM</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>E1001</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>David Miller</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TRK-1006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>West Plano Project</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03:45 PM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>06:47 AM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>03:42 PM</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>E1006</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Matthew Harris</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TRK-1013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>North Dallas Site</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>06:45 AM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03:45 PM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>06:52 AM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>03:37 PM</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>E1013</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>driver_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>asset_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>job_site</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_start</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_end</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>actual_start</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_end</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>status_reason</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>identity_verified</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>identity_source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anthony Martin</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TRK-1014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>West Plano Project</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07:16 AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>03:58 PM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16 minutes late</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>E1014</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Joseph Moore</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TRK-1008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Richardson Development</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>06:55 AM</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>03:25 PM</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>25 minutes late</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>E1008</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Michael Johnson</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TRK-1002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>West Plano Project</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>06:18 AM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>03:07 PM</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>18 minutes late</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>E1002</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Robert Williams</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TRK-1003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Downtown Construction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>07:28 AM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>03:45 PM</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>28 minutes late</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>E1003</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>driver_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>asset_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>job_site</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_start</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_end</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>actual_start</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_end</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>status_reason</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>identity_verified</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>identity_source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>William Brown</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TRK-1004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Richardson Development</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>06:30 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>06:32 AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>02:54 PM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Early End</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>36 minutes early</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>E1004</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>driver_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>asset_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>job_site</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_start</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>scheduled_end</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>actual_start</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_end</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>status_reason</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>identity_verified</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>employee_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>identity_source</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>James Davis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TRK-1005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>North Dallas Site</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07:03 AM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>03:12 PM</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Not On Job</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>At incorrect location: North Richland Hills</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>E1005</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>employee_master_list.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Source Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>File Path</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Record Count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Employee Master</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>data/employee_master_list.csv</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-05-21T01:39:06.862469</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Verification Mode</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GENIUS CORE HARDLINE MODE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Verification Signature</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GENIUS-CORE-HARDLINE-2025-05-16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Total Drivers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>On Time</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Late</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Early End</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Not On Job</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Generated</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-05-21T01:39:06.532761</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Verification Mode</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GENIUS CORE HARDLINE MODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Verification Signature</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GENIUS-CORE-HARDLINE-2025-05-16</t>
         </is>
       </c>
     </row>
